--- a/public/assets/academic_spreadsheet_template.xlsx
+++ b/public/assets/academic_spreadsheet_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhenil\Development\Blockchain Projects\E-certo-1\src\components\uploadExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhenil\Development\Blockchain Projects\E-certo\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D7669-3E34-45CD-88FC-39A51EC5D17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CB00EC-4EFF-4D60-9B35-A4D50A12D7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,13 +68,13 @@
     <t>30 Aug 2022</t>
   </si>
   <si>
-    <t>Jhenil Parihar</t>
-  </si>
-  <si>
-    <t>CSE</t>
-  </si>
-  <si>
     <t>94.67</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>Computer Engineering</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,10 +500,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2022</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>57480190032</v>
